--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H2">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I2">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J2">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1493526666666667</v>
+        <v>0.003986333333333333</v>
       </c>
       <c r="N2">
-        <v>0.448058</v>
+        <v>0.011959</v>
       </c>
       <c r="O2">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="P2">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="Q2">
-        <v>5.047001232938889</v>
+        <v>0.1527981352167778</v>
       </c>
       <c r="R2">
-        <v>45.42301109645</v>
+        <v>1.375183216951</v>
       </c>
       <c r="S2">
-        <v>0.001930849938314907</v>
+        <v>5.543969162688167E-05</v>
       </c>
       <c r="T2">
-        <v>0.001930849938314907</v>
+        <v>5.543969162688167E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H3">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I3">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J3">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.585534</v>
       </c>
       <c r="O3">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="P3">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="Q3">
-        <v>6.595554191483334</v>
+        <v>7.481269613347333</v>
       </c>
       <c r="R3">
-        <v>59.35998772335</v>
+        <v>67.331426520126</v>
       </c>
       <c r="S3">
-        <v>0.002523285574147277</v>
+        <v>0.00271442632302488</v>
       </c>
       <c r="T3">
-        <v>0.002523285574147278</v>
+        <v>0.00271442632302488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H4">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I4">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J4">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51044533333334</v>
+        <v>20.492743</v>
       </c>
       <c r="N4">
-        <v>67.53133600000001</v>
+        <v>61.478229</v>
       </c>
       <c r="O4">
-        <v>0.4947059924046515</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="P4">
-        <v>0.4947059924046516</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="Q4">
-        <v>760.6844115137113</v>
+        <v>785.4970104214424</v>
       </c>
       <c r="R4">
-        <v>6846.159703623402</v>
+        <v>7069.473093792981</v>
       </c>
       <c r="S4">
-        <v>0.2910178502558224</v>
+        <v>0.2850015935719387</v>
       </c>
       <c r="T4">
-        <v>0.2910178502558225</v>
+        <v>0.2850015935719387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H5">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I5">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J5">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1054956666666667</v>
+        <v>0.1451653333333333</v>
       </c>
       <c r="N5">
-        <v>0.316487</v>
+        <v>0.435496</v>
       </c>
       <c r="O5">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="P5">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="Q5">
-        <v>3.56496319496389</v>
+        <v>5.564259277060446</v>
       </c>
       <c r="R5">
-        <v>32.084668754675</v>
+        <v>50.078333493544</v>
       </c>
       <c r="S5">
-        <v>0.001363861161785907</v>
+        <v>0.002018878162450076</v>
       </c>
       <c r="T5">
-        <v>0.001363861161785907</v>
+        <v>0.002018878162450076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H6">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I6">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J6">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.542202</v>
+        <v>17.40055266666667</v>
       </c>
       <c r="N6">
-        <v>67.626606</v>
+        <v>52.20165799999999</v>
       </c>
       <c r="O6">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="P6">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="Q6">
-        <v>761.7575489366834</v>
+        <v>666.9718201876402</v>
       </c>
       <c r="R6">
-        <v>6855.81794043015</v>
+        <v>6002.746381688761</v>
       </c>
       <c r="S6">
-        <v>0.2914284044109167</v>
+        <v>0.2419971420630438</v>
       </c>
       <c r="T6">
-        <v>0.2914284044109168</v>
+        <v>0.2419971420630438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1493526666666667</v>
+        <v>0.003986333333333333</v>
       </c>
       <c r="N7">
-        <v>0.448058</v>
+        <v>0.011959</v>
       </c>
       <c r="O7">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="P7">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="Q7">
-        <v>2.231855158797333</v>
+        <v>0.05956986783866667</v>
       </c>
       <c r="R7">
-        <v>20.086696429176</v>
+        <v>0.536128810548</v>
       </c>
       <c r="S7">
-        <v>0.0008538490871701789</v>
+        <v>2.161371340392606E-05</v>
       </c>
       <c r="T7">
-        <v>0.0008538490871701791</v>
+        <v>2.161371340392606E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.585534</v>
       </c>
       <c r="O8">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="P8">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="Q8">
         <v>2.916647127272</v>
@@ -948,10 +948,10 @@
         <v>26.249824145448</v>
       </c>
       <c r="S8">
-        <v>0.00111583248464954</v>
+        <v>0.001058246012564131</v>
       </c>
       <c r="T8">
-        <v>0.00111583248464954</v>
+        <v>0.001058246012564131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.51044533333334</v>
+        <v>20.492743</v>
       </c>
       <c r="N9">
-        <v>67.53133600000001</v>
+        <v>61.478229</v>
       </c>
       <c r="O9">
-        <v>0.4947059924046515</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="P9">
-        <v>0.4947059924046516</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="Q9">
-        <v>336.3853800893548</v>
+        <v>306.233796846332</v>
       </c>
       <c r="R9">
-        <v>3027.468420804193</v>
+        <v>2756.104171616988</v>
       </c>
       <c r="S9">
-        <v>0.1286921996683078</v>
+        <v>0.1111106967294035</v>
       </c>
       <c r="T9">
-        <v>0.1286921996683078</v>
+        <v>0.1111106967294035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>44.830572</v>
       </c>
       <c r="I10">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J10">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1054956666666667</v>
+        <v>0.1451653333333333</v>
       </c>
       <c r="N10">
-        <v>0.316487</v>
+        <v>0.435496</v>
       </c>
       <c r="O10">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="P10">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="Q10">
-        <v>1.576477026729334</v>
+        <v>2.169281642634667</v>
       </c>
       <c r="R10">
-        <v>14.188293240564</v>
+        <v>19.523534783712</v>
       </c>
       <c r="S10">
-        <v>0.0006031186499319919</v>
+        <v>0.0007870796665738094</v>
       </c>
       <c r="T10">
-        <v>0.000603118649931992</v>
+        <v>0.0007870796665738094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>44.830572</v>
       </c>
       <c r="I11">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J11">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.542202</v>
+        <v>17.40055266666667</v>
       </c>
       <c r="N11">
-        <v>67.626606</v>
+        <v>52.20165799999999</v>
       </c>
       <c r="O11">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="P11">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="Q11">
-        <v>336.859936599848</v>
+        <v>260.0255763875974</v>
       </c>
       <c r="R11">
-        <v>3031.739429398632</v>
+        <v>2340.230187488376</v>
       </c>
       <c r="S11">
-        <v>0.1288737525086425</v>
+        <v>0.094344984967118</v>
       </c>
       <c r="T11">
-        <v>0.1288737525086425</v>
+        <v>0.094344984967118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H12">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I12">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J12">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1493526666666667</v>
+        <v>0.003986333333333333</v>
       </c>
       <c r="N12">
-        <v>0.448058</v>
+        <v>0.011959</v>
       </c>
       <c r="O12">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="P12">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="Q12">
-        <v>0.2200237099695555</v>
+        <v>0.03255663812988888</v>
       </c>
       <c r="R12">
-        <v>1.980213389726</v>
+        <v>0.293009743169</v>
       </c>
       <c r="S12">
-        <v>8.41752849295722E-05</v>
+        <v>1.181251312896147E-05</v>
       </c>
       <c r="T12">
-        <v>8.417528492957222E-05</v>
+        <v>1.181251312896147E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H13">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I13">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J13">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.585534</v>
       </c>
       <c r="O13">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="P13">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="Q13">
-        <v>0.2875327814553333</v>
+        <v>1.594031152332666</v>
       </c>
       <c r="R13">
-        <v>2.587795033098</v>
+        <v>14.346280370994</v>
       </c>
       <c r="S13">
-        <v>0.0001100024802278994</v>
+        <v>0.0005783617411533845</v>
       </c>
       <c r="T13">
-        <v>0.0001100024802278994</v>
+        <v>0.0005783617411533847</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H14">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I14">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J14">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.51044533333334</v>
+        <v>20.492743</v>
       </c>
       <c r="N14">
-        <v>67.53133600000001</v>
+        <v>61.478229</v>
       </c>
       <c r="O14">
-        <v>0.4947059924046515</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="P14">
-        <v>0.4947059924046516</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="Q14">
-        <v>33.16199038053244</v>
+        <v>167.3655367856377</v>
       </c>
       <c r="R14">
-        <v>298.457913424792</v>
+        <v>1506.289831070739</v>
       </c>
       <c r="S14">
-        <v>0.01268690537714911</v>
+        <v>0.06072517662077095</v>
       </c>
       <c r="T14">
-        <v>0.01268690537714912</v>
+        <v>0.06072517662077096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H15">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I15">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J15">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1054956666666667</v>
+        <v>0.1451653333333333</v>
       </c>
       <c r="N15">
-        <v>0.316487</v>
+        <v>0.435496</v>
       </c>
       <c r="O15">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="P15">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="Q15">
-        <v>0.1554143523765555</v>
+        <v>1.185574519526222</v>
       </c>
       <c r="R15">
-        <v>1.398729171389</v>
+        <v>10.670170675736</v>
       </c>
       <c r="S15">
-        <v>5.945744390571202E-05</v>
+        <v>0.0004301615701655828</v>
       </c>
       <c r="T15">
-        <v>5.945744390571204E-05</v>
+        <v>0.0004301615701655829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H16">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I16">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J16">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.542202</v>
+        <v>17.40055266666667</v>
       </c>
       <c r="N16">
-        <v>67.626606</v>
+        <v>52.20165799999999</v>
       </c>
       <c r="O16">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="P16">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="Q16">
-        <v>33.20877374083133</v>
+        <v>142.1114214638531</v>
       </c>
       <c r="R16">
-        <v>298.878963667482</v>
+        <v>1279.002793174678</v>
       </c>
       <c r="S16">
-        <v>0.01270480346042235</v>
+        <v>0.05156223517673355</v>
       </c>
       <c r="T16">
-        <v>0.01270480346042235</v>
+        <v>0.05156223517673356</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H17">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I17">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J17">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1493526666666667</v>
+        <v>0.003986333333333333</v>
       </c>
       <c r="N17">
-        <v>0.448058</v>
+        <v>0.011959</v>
       </c>
       <c r="O17">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="P17">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="Q17">
-        <v>0.6803177258915555</v>
+        <v>0.02325727455144445</v>
       </c>
       <c r="R17">
-        <v>6.122859533024</v>
+        <v>0.209315470963</v>
       </c>
       <c r="S17">
-        <v>0.0002602716699372269</v>
+        <v>8.438428436214482E-06</v>
       </c>
       <c r="T17">
-        <v>0.0002602716699372269</v>
+        <v>8.438428436214482E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H18">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I18">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J18">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.585534</v>
       </c>
       <c r="O18">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="P18">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="Q18">
-        <v>0.8890571294613333</v>
+        <v>1.138717701915333</v>
       </c>
       <c r="R18">
-        <v>8.001514165152001</v>
+        <v>10.248459317238</v>
       </c>
       <c r="S18">
-        <v>0.00034012987600941</v>
+        <v>0.00041316052813533</v>
       </c>
       <c r="T18">
-        <v>0.00034012987600941</v>
+        <v>0.00041316052813533</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H19">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I19">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J19">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.51044533333334</v>
+        <v>20.492743</v>
       </c>
       <c r="N19">
-        <v>67.53133600000001</v>
+        <v>61.478229</v>
       </c>
       <c r="O19">
-        <v>0.4947059924046515</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="P19">
-        <v>0.4947059924046516</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="Q19">
-        <v>102.5375396353565</v>
+        <v>119.5598336641504</v>
       </c>
       <c r="R19">
-        <v>922.8378567182082</v>
+        <v>1076.038502977353</v>
       </c>
       <c r="S19">
-        <v>0.03922816598255576</v>
+        <v>0.04337985080706631</v>
       </c>
       <c r="T19">
-        <v>0.03922816598255578</v>
+        <v>0.04337985080706631</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H20">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I20">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J20">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1054956666666667</v>
+        <v>0.1451653333333333</v>
       </c>
       <c r="N20">
-        <v>0.316487</v>
+        <v>0.435496</v>
       </c>
       <c r="O20">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="P20">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="Q20">
-        <v>0.4805442958595555</v>
+        <v>0.8469311847191113</v>
       </c>
       <c r="R20">
-        <v>4.324898662736</v>
+        <v>7.622380662472001</v>
       </c>
       <c r="S20">
-        <v>0.0001838436095403344</v>
+        <v>0.0003072917326078821</v>
       </c>
       <c r="T20">
-        <v>0.0001838436095403344</v>
+        <v>0.0003072917326078821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H21">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I21">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J21">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.542202</v>
+        <v>17.40055266666667</v>
       </c>
       <c r="N21">
-        <v>67.626606</v>
+        <v>52.20165799999999</v>
       </c>
       <c r="O21">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="P21">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="Q21">
-        <v>102.6821947240853</v>
+        <v>101.5192149967896</v>
       </c>
       <c r="R21">
-        <v>924.139752516768</v>
+        <v>913.6729349711061</v>
       </c>
       <c r="S21">
-        <v>0.0392835072151527</v>
+        <v>0.03683417972110906</v>
       </c>
       <c r="T21">
-        <v>0.0392835072151527</v>
+        <v>0.03683417972110906</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H22">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I22">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J22">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1493526666666667</v>
+        <v>0.003986333333333333</v>
       </c>
       <c r="N22">
-        <v>0.448058</v>
+        <v>0.011959</v>
       </c>
       <c r="O22">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="P22">
-        <v>0.0032822833172565</v>
+        <v>0.0001042515924716245</v>
       </c>
       <c r="Q22">
-        <v>0.4002819239495555</v>
+        <v>0.01914740474811111</v>
       </c>
       <c r="R22">
-        <v>3.602537315545999</v>
+        <v>0.172326642733</v>
       </c>
       <c r="S22">
-        <v>0.0001531373369046153</v>
+        <v>6.947245875640834E-06</v>
       </c>
       <c r="T22">
-        <v>0.0001531373369046153</v>
+        <v>6.947245875640836E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H23">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I23">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J23">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.585534</v>
       </c>
       <c r="O23">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="P23">
-        <v>0.004289374321820987</v>
+        <v>0.005104344171442446</v>
       </c>
       <c r="Q23">
-        <v>0.5230989649953333</v>
+        <v>0.9374911356953334</v>
       </c>
       <c r="R23">
-        <v>4.707890684958</v>
+        <v>8.437420221258002</v>
       </c>
       <c r="S23">
-        <v>0.0002001239067868602</v>
+        <v>0.0003401495665647195</v>
       </c>
       <c r="T23">
-        <v>0.0002001239067868603</v>
+        <v>0.0003401495665647196</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H24">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I24">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J24">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.51044533333334</v>
+        <v>20.492743</v>
       </c>
       <c r="N24">
-        <v>67.53133600000001</v>
+        <v>61.478229</v>
       </c>
       <c r="O24">
-        <v>0.4947059924046515</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="P24">
-        <v>0.4947059924046516</v>
+        <v>0.5359313718191496</v>
       </c>
       <c r="Q24">
-        <v>60.33052216669245</v>
+        <v>98.43202055858035</v>
       </c>
       <c r="R24">
-        <v>542.9746995002321</v>
+        <v>885.8881850272231</v>
       </c>
       <c r="S24">
-        <v>0.02308087112081645</v>
+        <v>0.03571405408997013</v>
       </c>
       <c r="T24">
-        <v>0.02308087112081646</v>
+        <v>0.03571405408997014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H25">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I25">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J25">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1054956666666667</v>
+        <v>0.1451653333333333</v>
       </c>
       <c r="N25">
-        <v>0.316487</v>
+        <v>0.435496</v>
       </c>
       <c r="O25">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="P25">
-        <v>0.002318449844057149</v>
+        <v>0.003796400327370399</v>
       </c>
       <c r="Q25">
-        <v>0.2827402373465556</v>
+        <v>0.6972671777057778</v>
       </c>
       <c r="R25">
-        <v>2.544662136119</v>
+        <v>6.275404599352001</v>
       </c>
       <c r="S25">
-        <v>0.0001081689788932035</v>
+        <v>0.000252989195573048</v>
       </c>
       <c r="T25">
-        <v>0.0001081689788932036</v>
+        <v>0.0002529891955730481</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H26">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I26">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J26">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.542202</v>
+        <v>17.40055266666667</v>
       </c>
       <c r="N26">
-        <v>67.626606</v>
+        <v>52.20165799999999</v>
       </c>
       <c r="O26">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="P26">
-        <v>0.4954039001122139</v>
+        <v>0.4550636320895659</v>
       </c>
       <c r="Q26">
-        <v>60.41563360069133</v>
+        <v>83.57941920298289</v>
       </c>
       <c r="R26">
-        <v>543.7407024062219</v>
+        <v>752.214772826846</v>
       </c>
       <c r="S26">
-        <v>0.02311343251707966</v>
+        <v>0.03032509016156145</v>
       </c>
       <c r="T26">
-        <v>0.02311343251707966</v>
+        <v>0.03032509016156145</v>
       </c>
     </row>
   </sheetData>
